--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698120.3504620566</v>
+        <v>735591.435593115</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12432488.86377384</v>
+        <v>12433754.73901463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542677.888651097</v>
+        <v>6542240.186367739</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9300146.761321412</v>
+        <v>9300109.081812181</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.2791855053266</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>232.2791855053264</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>6.20460008437335</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>45.01451643888167</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>40.48452619216743</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>20.64107630343909</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>16.48087407762958</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>46.13100563166205</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
-        <v>209.838688301488</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>62.36390131704162</v>
+        <v>117.9483782436208</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.60728750040722</v>
+        <v>33.74703566813356</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.5853523061922</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6334664811176</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>114.5975515302859</v>
+        <v>114.6998850700518</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.2116020417931</v>
+        <v>116.3646073887345</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>50.53441885702114</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2449309464601</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>247.8304171392522</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>139.9572470877739</v>
       </c>
       <c r="F8" t="n">
-        <v>182.8194550307978</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>70.62300946095755</v>
+        <v>3.065192876228989</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>283.4797796723903</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.7321536188797</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759564</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>64.9210906006349</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412519</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396685</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.51626366671985</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>79.48729156305107</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>258.7229472152085</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>22.79319361026464</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>103.0375980111585</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>131.7730784234083</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>142.5584992616289</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>265.7379470001102</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>223.3200711275817</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.4425172951283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>212.1942497135179</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>220.6266854036304</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>56.12647190491128</v>
+        <v>204.8429981867602</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>240.2648719523401</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>290.2806394171307</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>27.19006412747701</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1977700471489</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>268.8390607402558</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>221.1917826318959</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.0524966157147</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>245.7853873250211</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>14.20188851094957</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3031,16 +3031,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>304.8488322861537</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>37.38100496017417</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>233.2810475253888</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>58.92805047992029</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>7.601081015447011</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>89.86676627008457</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>126.53888249517</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>64.63768667492377</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.68750238080759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>230.2267521569509</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>91.08064078754624</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>41.20483001359412</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699488</v>
       </c>
       <c r="X44" t="n">
-        <v>288.237517418881</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.601081015447603</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4309,16 +4309,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="D2" t="n">
-        <v>788.477863438847</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344767</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672986</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G2" t="n">
         <v>21.0971104001205</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>482.0708058524406</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
         <v>21.0971104001205</v>
@@ -4409,25 +4409,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1009.386311481902</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374626</v>
+        <v>1009.386311481902</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374626</v>
+        <v>781.2504655187154</v>
       </c>
       <c r="V3" t="n">
-        <v>858.0464416374626</v>
+        <v>546.0983572869726</v>
       </c>
       <c r="W3" t="n">
-        <v>858.0464416374626</v>
+        <v>546.0983572869726</v>
       </c>
       <c r="X3" t="n">
-        <v>858.0464416374626</v>
+        <v>338.2468570814398</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2861428725087</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0971104001205</v>
+        <v>337.9463869104205</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0971104001205</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0971104001205</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
         <v>21.0971104001205</v>
@@ -4500,10 +4500,10 @@
         <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640393</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>563.0088271968613</v>
+        <v>1013.962059205856</v>
       </c>
       <c r="V4" t="n">
-        <v>308.3243389909744</v>
+        <v>1013.962059205856</v>
       </c>
       <c r="W4" t="n">
-        <v>41.94668242379635</v>
+        <v>747.5844026386776</v>
       </c>
       <c r="X4" t="n">
-        <v>21.0971104001205</v>
+        <v>519.5948517406603</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.0971104001205</v>
+        <v>519.5948517406603</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>419.6506709871032</v>
+        <v>907.8946255534333</v>
       </c>
       <c r="C5" t="n">
-        <v>50.68815404669147</v>
+        <v>907.8946255534333</v>
       </c>
       <c r="D5" t="n">
-        <v>34.04080649353028</v>
+        <v>907.8946255534333</v>
       </c>
       <c r="E5" t="n">
-        <v>34.04080649353028</v>
+        <v>907.8946255534333</v>
       </c>
       <c r="F5" t="n">
-        <v>34.04080649353028</v>
+        <v>496.9087207638258</v>
       </c>
       <c r="G5" t="n">
-        <v>34.04080649353028</v>
+        <v>80.46241177687472</v>
       </c>
       <c r="H5" t="n">
-        <v>34.04080649353028</v>
+        <v>80.46241177687472</v>
       </c>
       <c r="I5" t="n">
-        <v>34.04080649353028</v>
+        <v>33.86543639135749</v>
       </c>
       <c r="J5" t="n">
-        <v>109.2732401230471</v>
+        <v>108.4604468780285</v>
       </c>
       <c r="K5" t="n">
-        <v>272.7656743831117</v>
+        <v>270.9975490818711</v>
       </c>
       <c r="L5" t="n">
-        <v>512.4942579306248</v>
+        <v>509.5409587374015</v>
       </c>
       <c r="M5" t="n">
-        <v>810.9079353242677</v>
+        <v>806.6359018176522</v>
       </c>
       <c r="N5" t="n">
-        <v>1118.764066378867</v>
+        <v>1113.151960058975</v>
       </c>
       <c r="O5" t="n">
-        <v>1396.128619914182</v>
+        <v>1389.251120836703</v>
       </c>
       <c r="P5" t="n">
-        <v>1598.351848441878</v>
+        <v>1590.394365921696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1702.040324676514</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="R5" t="n">
-        <v>1702.040324676514</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="S5" t="n">
-        <v>1702.040324676514</v>
+        <v>1551.674342961964</v>
       </c>
       <c r="T5" t="n">
-        <v>1490.08205366491</v>
+        <v>1551.674342961964</v>
       </c>
       <c r="U5" t="n">
-        <v>1490.08205366491</v>
+        <v>1298.033957529245</v>
       </c>
       <c r="V5" t="n">
-        <v>1159.019166321339</v>
+        <v>1298.033957529245</v>
       </c>
       <c r="W5" t="n">
-        <v>806.250511051225</v>
+        <v>1298.033957529245</v>
       </c>
       <c r="X5" t="n">
-        <v>806.250511051225</v>
+        <v>1298.033957529245</v>
       </c>
       <c r="Y5" t="n">
-        <v>806.250511051225</v>
+        <v>907.8946255534333</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>290.2188562640856</v>
+        <v>645.1788939126891</v>
       </c>
       <c r="C6" t="n">
-        <v>290.2188562640856</v>
+        <v>470.7258646315621</v>
       </c>
       <c r="D6" t="n">
-        <v>227.2250165499022</v>
+        <v>351.5860886279048</v>
       </c>
       <c r="E6" t="n">
-        <v>67.98756154444666</v>
+        <v>351.5860886279048</v>
       </c>
       <c r="F6" t="n">
-        <v>67.98756154444666</v>
+        <v>205.0515306547897</v>
       </c>
       <c r="G6" t="n">
-        <v>67.98756154444666</v>
+        <v>67.95335120765401</v>
       </c>
       <c r="H6" t="n">
-        <v>67.98756154444666</v>
+        <v>67.95335120765401</v>
       </c>
       <c r="I6" t="n">
-        <v>34.04080649353028</v>
+        <v>33.86543639135749</v>
       </c>
       <c r="J6" t="n">
-        <v>60.03088161251111</v>
+        <v>59.47586665324494</v>
       </c>
       <c r="K6" t="n">
-        <v>444.4274689964855</v>
+        <v>181.4029958650508</v>
       </c>
       <c r="L6" t="n">
-        <v>655.5685726558913</v>
+        <v>391.6716089877866</v>
       </c>
       <c r="M6" t="n">
-        <v>921.3171499162073</v>
+        <v>656.4020309445286</v>
       </c>
       <c r="N6" t="n">
-        <v>1208.50794617278</v>
+        <v>1075.486806287578</v>
       </c>
       <c r="O6" t="n">
-        <v>1449.011622272597</v>
+        <v>1315.034417461776</v>
       </c>
       <c r="P6" t="n">
-        <v>1622.703959278048</v>
+        <v>1487.959428076246</v>
       </c>
       <c r="Q6" t="n">
-        <v>1702.040324676514</v>
+        <v>1693.078019232588</v>
       </c>
       <c r="R6" t="n">
-        <v>1702.040324676514</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="S6" t="n">
-        <v>1559.024817296522</v>
+        <v>1550.18015784312</v>
       </c>
       <c r="T6" t="n">
-        <v>1363.435457214585</v>
+        <v>1550.18015784312</v>
       </c>
       <c r="U6" t="n">
-        <v>1363.435457214585</v>
+        <v>1550.18015784312</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.283348982842</v>
+        <v>1315.028049611377</v>
       </c>
       <c r="W6" t="n">
-        <v>874.0459922546404</v>
+        <v>1060.790692883176</v>
       </c>
       <c r="X6" t="n">
-        <v>666.1944920491076</v>
+        <v>852.939192677643</v>
       </c>
       <c r="Y6" t="n">
-        <v>458.4341932841537</v>
+        <v>645.1788939126891</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.7090026317678</v>
+        <v>746.3399364172965</v>
       </c>
       <c r="C7" t="n">
-        <v>297.7090026317678</v>
+        <v>746.3399364172965</v>
       </c>
       <c r="D7" t="n">
-        <v>297.7090026317678</v>
+        <v>596.2232970049607</v>
       </c>
       <c r="E7" t="n">
-        <v>149.7959090493747</v>
+        <v>448.3102034225676</v>
       </c>
       <c r="F7" t="n">
-        <v>149.7959090493747</v>
+        <v>301.4202559246572</v>
       </c>
       <c r="G7" t="n">
-        <v>149.7959090493747</v>
+        <v>301.4202559246572</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7959090493747</v>
+        <v>149.7239061590867</v>
       </c>
       <c r="I7" t="n">
-        <v>34.04080649353028</v>
+        <v>33.86543639135749</v>
       </c>
       <c r="J7" t="n">
-        <v>36.69866842157659</v>
+        <v>36.28512133652235</v>
       </c>
       <c r="K7" t="n">
-        <v>170.9031887458671</v>
+        <v>170.0982437128606</v>
       </c>
       <c r="L7" t="n">
-        <v>398.1652043647483</v>
+        <v>396.85940471196</v>
       </c>
       <c r="M7" t="n">
-        <v>648.1702584435043</v>
+        <v>646.3363778191556</v>
       </c>
       <c r="N7" t="n">
-        <v>897.665367546892</v>
+        <v>895.3159625361677</v>
       </c>
       <c r="O7" t="n">
-        <v>1112.098187242966</v>
+        <v>1109.272612021384</v>
       </c>
       <c r="P7" t="n">
-        <v>1272.061826678386</v>
+        <v>1268.828805580469</v>
       </c>
       <c r="Q7" t="n">
-        <v>1299.377278900145</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="R7" t="n">
-        <v>1181.991822292273</v>
+        <v>1178.32215593365</v>
       </c>
       <c r="S7" t="n">
-        <v>1181.991822292273</v>
+        <v>1178.32215593365</v>
       </c>
       <c r="T7" t="n">
-        <v>1130.946954759929</v>
+        <v>1178.32215593365</v>
       </c>
       <c r="U7" t="n">
-        <v>841.8106608746153</v>
+        <v>1178.32215593365</v>
       </c>
       <c r="V7" t="n">
-        <v>587.1261726687285</v>
+        <v>927.9884012475362</v>
       </c>
       <c r="W7" t="n">
-        <v>297.7090026317678</v>
+        <v>927.9884012475362</v>
       </c>
       <c r="X7" t="n">
-        <v>297.7090026317678</v>
+        <v>927.9884012475362</v>
       </c>
       <c r="Y7" t="n">
-        <v>297.7090026317678</v>
+        <v>927.9884012475362</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1076.257000807301</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="C8" t="n">
-        <v>1076.257000807301</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="D8" t="n">
-        <v>717.991302200551</v>
+        <v>603.6036480119278</v>
       </c>
       <c r="E8" t="n">
-        <v>717.991302200551</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4837,19 +4837,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847235</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847235</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>1852.996172847235</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y8" t="n">
-        <v>1462.856840871423</v>
+        <v>990.2034880760496</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4889,16 +4889,16 @@
         <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687206</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.770244284151</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.0498276483066</v>
+        <v>831.7113734044286</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4989,25 +4989,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1265.897592557054</v>
+        <v>1530.766559169646</v>
       </c>
       <c r="W10" t="n">
-        <v>976.4804225200937</v>
+        <v>1241.349389132686</v>
       </c>
       <c r="X10" t="n">
-        <v>748.4908716220764</v>
+        <v>1013.359838234668</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.6982924785463</v>
+        <v>1013.359838234668</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2262.862837701252</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.519625910959</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.253927304209</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.465674705964</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.4797699163569</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.3950511722218</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.6858050925454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.21592154951945</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>254.0744928369595</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3643121319017</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.50097790098</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1566.921495383894</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2111.554760801559</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2612.501248106872</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3005.546484356407</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3252.534341412641</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3310.796077475972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3200.225838528232</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3200.225838528232</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2946.694380314937</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2615.631492971367</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2262.862837701252</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.862837701252</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.862837701252</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3156003142894</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8625710331625</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9281613719111</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6907063664555</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1561483933406</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7864839520668</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>75.22119252365751</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.21592154951945</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>159.2853526912741</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>396.510659118347</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>761.8119001858311</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1207.458086537445</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1679.307846295919</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.738397943176</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.009445431869</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.82975395794</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2554.82975395794</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2425.269938942936</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.600479990497</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.532201264788</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.380093033046</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.142736304844</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.291236099311</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.530937334358</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.8290762172755</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C13" t="n">
-        <v>754.8928932893687</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D13" t="n">
-        <v>604.7762538770329</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E13" t="n">
-        <v>456.8631602946398</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>309.9732127967294</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>309.9732127967294</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.7070969704486</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.21592154951945</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>110.9572157501788</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>314.3177428179429</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>630.0756374886839</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>973.3871879897964</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1313.970173580891</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1612.537390213391</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1844.49254089413</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1921.651183891643</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1921.651183891643</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1729.869392788394</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1649.579199290363</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1649.579199290363</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>1394.894711084476</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W13" t="n">
-        <v>1105.477541047515</v>
+        <v>1162.675280923981</v>
       </c>
       <c r="X13" t="n">
-        <v>1105.477541047515</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y13" t="n">
-        <v>1105.477541047515</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.341567565138</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.379050624726</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
         <v>108.5090151927147</v>
@@ -5278,22 +5278,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3221.527439779718</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3015.54969216394</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2762.019215437776</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2762.019215437776</v>
       </c>
       <c r="W14" t="n">
-        <v>2862.546497866151</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.080739605071</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y14" t="n">
-        <v>2098.94140762926</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>651.5308283972846</v>
+        <v>758.9852304414019</v>
       </c>
       <c r="C16" t="n">
-        <v>651.5308283972846</v>
+        <v>590.049047513495</v>
       </c>
       <c r="D16" t="n">
-        <v>651.5308283972846</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E16" t="n">
-        <v>503.6177348148915</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F16" t="n">
-        <v>356.7277873169811</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5469,19 +5469,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>1161.426274415172</v>
       </c>
       <c r="X16" t="n">
-        <v>872.3234075408147</v>
+        <v>1161.426274415172</v>
       </c>
       <c r="Y16" t="n">
-        <v>651.5308283972846</v>
+        <v>940.6336952716416</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1089.587234425931</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5548,19 +5548,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3155.791869823214</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>3155.791869823214</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X17" t="n">
-        <v>2782.326111562134</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y17" t="n">
-        <v>2392.186779586323</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="18">
@@ -5585,10 +5585,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5597,10 +5597,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5673,16 +5673,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,10 +5694,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
         <v>1735.608663915319</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046014</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676408</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696235</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2747.447050436851</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2394.678395166736</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X20" t="n">
-        <v>2394.678395166736</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y20" t="n">
-        <v>2004.539063190924</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5819,46 +5819,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.9541770656748</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C22" t="n">
-        <v>529.0179941377679</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1678.915257950762</v>
+        <v>1720.382428707927</v>
       </c>
       <c r="U22" t="n">
-        <v>1389.812391076405</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="V22" t="n">
-        <v>1389.812391076405</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W22" t="n">
-        <v>1100.395221039445</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X22" t="n">
-        <v>1100.395221039445</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.6026418959145</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1904.487375535336</v>
+        <v>1887.813801820604</v>
       </c>
       <c r="C23" t="n">
-        <v>1535.524858594925</v>
+        <v>1518.851284880192</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.259159988174</v>
+        <v>1160.585586273442</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>774.7973336751977</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
@@ -6010,7 +6010,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
@@ -6025,16 +6025,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W23" t="n">
         <v>2277.953133796416</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535336</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y23" t="n">
-        <v>1904.487375535336</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6086,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>538.8965081646984</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>538.8965081646984</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>388.7798687523626</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>240.8667751699695</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>93.97682767205916</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1722.044275313594</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.044275313594</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>941.3375521384683</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>720.5449729949381</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1891.353293732296</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>1522.390776791884</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.125078185134</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6244,34 +6244,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y26" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1722.044275313594</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1722.044275313594</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.044275313594</v>
+        <v>1223.079753978441</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.044275313594</v>
+        <v>933.6625839414804</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.054724415577</v>
+        <v>933.6625839414804</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1320.35562273557</v>
+        <v>1480.516858765519</v>
       </c>
       <c r="C29" t="n">
-        <v>1320.35562273557</v>
+        <v>1111.554341825107</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X29" t="n">
-        <v>1904.487375535336</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y29" t="n">
-        <v>1514.348043559524</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D30" t="n">
         <v>618.1564155387305</v>
@@ -6530,25 +6530,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6560,16 +6560,16 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T30" t="n">
         <v>2242.828302297192</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>80.85745836243552</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>80.85745836243552</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
         <v>1317.747152581905</v>
@@ -6642,31 +6642,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088492</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F32" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939507</v>
@@ -6721,31 +6721,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>3155.791869823214</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6800,7 +6800,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
         <v>2564.909189125856</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>271.9735439263272</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>1735.608663915319</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>1446.505797040962</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>1191.821308835075</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>902.4041387981144</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>674.4145879000971</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>453.622008756567</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1811.579746109089</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1575.942324366272</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810557</v>
@@ -6946,43 +6946,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>2961.784676410102</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2588.318918149022</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>2198.17958617321</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7022,22 +7022,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690271</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408143</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427969</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992668</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>157.2866278161072</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>212.7293032143256</v>
+        <v>594.308586738701</v>
       </c>
       <c r="C40" t="n">
-        <v>212.7293032143256</v>
+        <v>594.308586738701</v>
       </c>
       <c r="D40" t="n">
-        <v>212.7293032143256</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>212.7293032143256</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7368,16 +7368,16 @@
         <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046014</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676408</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696235</v>
+        <v>996.7496307124709</v>
       </c>
       <c r="Y40" t="n">
-        <v>394.3777680445653</v>
+        <v>775.9570515689408</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1921.870414581993</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1552.907897641581</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7432,7 +7432,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
@@ -7444,19 +7444,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>3072.075344883006</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2698.609586621926</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>2308.470254646114</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
         <v>765.1517452158134</v>
@@ -7505,31 +7505,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>423.5412774992668</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C43" t="n">
-        <v>423.5412774992668</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>331.5406302391191</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>331.5406302391191</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658018</v>
+        <v>1693.987623497547</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1404.884756623191</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1150.200268417304</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408143</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427969</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y43" t="n">
-        <v>423.5412774992668</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.35562273557</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
         <v>1320.35562273557</v>
@@ -7645,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269323</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X44" t="n">
-        <v>2097.094794775503</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1706.955462799692</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1919.61668847693</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.850073046456</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1408.747206172099</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1154.062717966212</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>864.6455479292516</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>636.6559970312343</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8634178877041</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.34792361321354</v>
+        <v>25.82445471157905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>134.2819009407273</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.27963065852126</v>
+        <v>140.8505025064402</v>
       </c>
       <c r="R6" t="n">
-        <v>45.07390233480886</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909904</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -22549,19 +22549,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.6511845669352</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442037</v>
+        <v>180.5549891403836</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -22628,16 +22628,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>166.5038989039424</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -22676,25 +22676,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>102.1354189733171</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22758,19 +22758,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>245.77410431051</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>205.0685790855981</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>338.2021675430534</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2742597852337</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.4594045644145</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>93.72050188838232</v>
+        <v>47.88195983373635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.0086333161173</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1033746894444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>85.08116424759714</v>
+        <v>29.49668732101799</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7231387249903</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.58599984631566</v>
+        <v>96.62520054253648</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22916,10 +22916,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>225.834778236355</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22941,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6325085078944</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1491316724218</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.3421560321367</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
-        <v>171.6067951188489</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.307226184575796</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23026,22 +23026,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>241.9731229844878</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0565907109136</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23193,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -23238,7 +23238,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>181.5146338628705</v>
+        <v>249.072450447599</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>81.79311209861726</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>321.3168480554187</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>140.0849365313571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>27.80005112138252</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>331.8898480104183</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.150163777017283</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>16.84239459480403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>23.4673089973993</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>141.1380987416012</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>82.87935969080525</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>63.20292720900935</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>115.558008756617</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>149.1044152748386</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>163.4224773712579</v>
+        <v>14.70595108940901</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>141.6654981199216</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>116.5954063245808</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.8357441315512</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.35117922902029</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>358.5862092445533</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>113.0913093320059</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.35117922901983</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>30.94586069193213</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.6813450477659</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>108.8976542956618</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.2320741356196</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>49.83420933452931</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>129.8658161384537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>131.9918442456188</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25210,13 +25210,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>290.3129182374927</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>159.6457400831808</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>204.7409981172359</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>222.702086222243</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.97778634328859</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.8971509712872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>124.4562894637321</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>57.53483223066611</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>178.3441192625751</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>331.8898480104181</v>
       </c>
       <c r="X44" t="n">
-        <v>81.49358325958804</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>182.1679443159943</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>519758.1490785158</v>
+        <v>519758.1490785156</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>631281.1325973748</v>
+        <v>629786.1670499949</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>778174.5801020849</v>
+        <v>778174.5801020848</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857627.5606298653</v>
+        <v>859202.1310424375</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859202.1310424375</v>
+        <v>859202.1310424374</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859202.1310424373</v>
+        <v>859202.1310424374</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859202.1310424377</v>
+        <v>859202.1310424375</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859202.1310424375</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424373</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859202.1310424374</v>
+        <v>859202.1310424376</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>203966.5811971125</v>
       </c>
       <c r="C2" t="n">
-        <v>248053.8999457299</v>
+        <v>247461.8373661104</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
-        <v>340317.4959346296</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709206</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709206</v>
       </c>
       <c r="J2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>340997.0989709208</v>
+      </c>
+      <c r="M2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="M2" t="n">
-        <v>340997.0989709207</v>
-      </c>
-      <c r="N2" t="n">
-        <v>340997.0989709204</v>
-      </c>
-      <c r="O2" t="n">
-        <v>340997.0989709206</v>
-      </c>
       <c r="P2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>179099.1831585664</v>
+        <v>176672.6241739521</v>
       </c>
       <c r="D3" t="n">
-        <v>221589.2771638951</v>
+        <v>223886.3093819055</v>
       </c>
       <c r="E3" t="n">
-        <v>178540.1976648849</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
-        <v>3449.010472953342</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911422</v>
+        <v>68999.15441911411</v>
       </c>
       <c r="K3" t="n">
-        <v>41641.16470210829</v>
+        <v>41076.98154640864</v>
       </c>
       <c r="L3" t="n">
-        <v>54433.48378785509</v>
+        <v>54988.29121946758</v>
       </c>
       <c r="M3" t="n">
-        <v>46629.60392417249</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
-        <v>906.8265503279132</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10070.37597634435</v>
+        <v>10070.37597634434</v>
       </c>
       <c r="C4" t="n">
-        <v>11500.72215207439</v>
+        <v>11484.20318046934</v>
       </c>
       <c r="D4" t="n">
         <v>13767.3191301128</v>
       </c>
       <c r="E4" t="n">
-        <v>7452.481782990988</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
+        <v>7330.627242042234</v>
+      </c>
+      <c r="G4" t="n">
         <v>7330.627242042245</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>7330.627242042245</v>
+      </c>
+      <c r="I4" t="n">
         <v>7330.627242042256</v>
       </c>
-      <c r="H4" t="n">
-        <v>7330.627242042256</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>7330.627242042257</v>
+      </c>
+      <c r="K4" t="n">
         <v>7330.627242042245</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7330.627242042245</v>
       </c>
-      <c r="K4" t="n">
-        <v>7330.627242042256</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7330.627242042256</v>
-      </c>
       <c r="M4" t="n">
-        <v>7330.627242042256</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="N4" t="n">
         <v>7330.627242042256</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75921.2905449058</v>
+        <v>75746.87167923129</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74015.36825377261</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559567.2937614426</v>
+        <v>-550272.3500933665</v>
       </c>
       <c r="C6" t="n">
-        <v>-26590.64515913727</v>
+        <v>-17257.15690537247</v>
       </c>
       <c r="D6" t="n">
-        <v>-27550.20096143552</v>
+        <v>-25142.51672974342</v>
       </c>
       <c r="E6" t="n">
-        <v>76799.27878310555</v>
+        <v>76939.53242048845</v>
       </c>
       <c r="F6" t="n">
-        <v>252434.9313964706</v>
+        <v>259012.5122376788</v>
       </c>
       <c r="G6" t="n">
-        <v>255883.941869424</v>
+        <v>259012.5122376792</v>
       </c>
       <c r="H6" t="n">
-        <v>255883.941869424</v>
+        <v>259012.512237679</v>
       </c>
       <c r="I6" t="n">
-        <v>255883.941869424</v>
+        <v>259012.512237679</v>
       </c>
       <c r="J6" t="n">
-        <v>186884.7874503098</v>
+        <v>190013.3578185646</v>
       </c>
       <c r="K6" t="n">
-        <v>214242.7771673158</v>
+        <v>217935.5306912703</v>
       </c>
       <c r="L6" t="n">
-        <v>201450.4580815688</v>
+        <v>204024.2210182116</v>
       </c>
       <c r="M6" t="n">
-        <v>209254.3379452516</v>
+        <v>211460.2464442641</v>
       </c>
       <c r="N6" t="n">
-        <v>254977.1153190958</v>
+        <v>259012.512237679</v>
       </c>
       <c r="O6" t="n">
-        <v>255883.9418694241</v>
+        <v>259012.5122376789</v>
       </c>
       <c r="P6" t="n">
-        <v>255883.9418694239</v>
+        <v>259012.5122376789</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>753.3338353129723</v>
+        <v>751.4467899908077</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>425.5100811691285</v>
+        <v>423.3179548919687</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>827.699019368993</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>139.278821543494</v>
+        <v>137.3917762213294</v>
       </c>
       <c r="D3" t="n">
-        <v>180.7310568045669</v>
+        <v>182.6181021267315</v>
       </c>
       <c r="E3" t="n">
-        <v>152.6905150447473</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021293431011827</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,49 +27011,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>159.6040748904625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>217.2668772080702</v>
+      </c>
+      <c r="E4" t="n">
+        <v>190.8166233022538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>263.7138800015063</v>
       </c>
-      <c r="C4" t="n">
-        <v>161.7962011676221</v>
-      </c>
-      <c r="D4" t="n">
-        <v>215.0747509309105</v>
-      </c>
-      <c r="E4" t="n">
-        <v>187.1141872689542</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.702436033299591</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015067</v>
-      </c>
       <c r="K4" t="n">
-        <v>161.7962011676217</v>
+        <v>159.6040748904628</v>
       </c>
       <c r="L4" t="n">
-        <v>215.0747509309106</v>
+        <v>217.2668772080697</v>
       </c>
       <c r="M4" t="n">
-        <v>187.1141872689543</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
-        <v>3.702436033299364</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7962011676221</v>
+        <v>159.6040748904625</v>
       </c>
       <c r="L4" t="n">
-        <v>215.0747509309105</v>
+        <v>217.2668772080702</v>
       </c>
       <c r="M4" t="n">
-        <v>187.1141872689542</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
-        <v>3.702436033299591</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.028477729901394</v>
+        <v>3.020891618053496</v>
       </c>
       <c r="H5" t="n">
-        <v>31.01539755135266</v>
+        <v>30.93770628339037</v>
       </c>
       <c r="I5" t="n">
-        <v>116.7553876820236</v>
+        <v>116.4629241050075</v>
       </c>
       <c r="J5" t="n">
-        <v>257.0382617282186</v>
+        <v>256.3943999677682</v>
       </c>
       <c r="K5" t="n">
-        <v>385.2337240349447</v>
+        <v>384.2687421599727</v>
       </c>
       <c r="L5" t="n">
-        <v>477.9164993614146</v>
+        <v>476.7193540159775</v>
       </c>
       <c r="M5" t="n">
-        <v>531.7741901905484</v>
+        <v>530.4421353285363</v>
       </c>
       <c r="N5" t="n">
-        <v>540.3788525406309</v>
+        <v>539.0252436383308</v>
       </c>
       <c r="O5" t="n">
-        <v>510.2644271139238</v>
+        <v>508.9862526113114</v>
       </c>
       <c r="P5" t="n">
-        <v>435.4988831569831</v>
+        <v>434.4079907906156</v>
       </c>
       <c r="Q5" t="n">
-        <v>327.0415244548894</v>
+        <v>326.2223097190747</v>
       </c>
       <c r="R5" t="n">
-        <v>190.2376142009186</v>
+        <v>189.7610831025531</v>
       </c>
       <c r="S5" t="n">
-        <v>69.01143627012807</v>
+        <v>68.83856774639411</v>
       </c>
       <c r="T5" t="n">
-        <v>13.25716126264336</v>
+        <v>13.22395305802918</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2422782183921114</v>
+        <v>0.2416713294442796</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.620378438220355</v>
+        <v>1.616319510546266</v>
       </c>
       <c r="H6" t="n">
-        <v>15.6494443901808</v>
+        <v>15.61024369395999</v>
       </c>
       <c r="I6" t="n">
-        <v>55.78934535100786</v>
+        <v>55.64959718328152</v>
       </c>
       <c r="J6" t="n">
-        <v>153.0902277969504</v>
+        <v>152.7067481433207</v>
       </c>
       <c r="K6" t="n">
-        <v>261.6555831577141</v>
+        <v>261.0001553499205</v>
       </c>
       <c r="L6" t="n">
-        <v>351.8282218600821</v>
+        <v>350.9469182876881</v>
       </c>
       <c r="M6" t="n">
-        <v>410.5669402455698</v>
+        <v>409.5385005449901</v>
       </c>
       <c r="N6" t="n">
-        <v>421.4334254738108</v>
+        <v>420.3777660345746</v>
       </c>
       <c r="O6" t="n">
-        <v>385.5292506058755</v>
+        <v>384.5635284587863</v>
       </c>
       <c r="P6" t="n">
-        <v>309.4212124703414</v>
+        <v>308.6461353077339</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.8398862542335</v>
+        <v>206.3217676970988</v>
       </c>
       <c r="R6" t="n">
-        <v>100.6056016291551</v>
+        <v>100.3535920670743</v>
       </c>
       <c r="S6" t="n">
-        <v>30.09781879764562</v>
+        <v>30.02242599633083</v>
       </c>
       <c r="T6" t="n">
-        <v>6.531262213703974</v>
+        <v>6.514901886807094</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1066038446197603</v>
+        <v>0.1063368099043596</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.358470850564376</v>
+        <v>1.355067981950637</v>
       </c>
       <c r="H7" t="n">
-        <v>12.07804083501783</v>
+        <v>12.04778623952476</v>
       </c>
       <c r="I7" t="n">
-        <v>40.85292339697234</v>
+        <v>40.75058985720644</v>
       </c>
       <c r="J7" t="n">
-        <v>96.04388913490138</v>
+        <v>95.80330632391001</v>
       </c>
       <c r="K7" t="n">
-        <v>157.8296133655702</v>
+        <v>157.4342619029921</v>
       </c>
       <c r="L7" t="n">
-        <v>201.9675662739074</v>
+        <v>201.461652516552</v>
       </c>
       <c r="M7" t="n">
-        <v>212.9464806934685</v>
+        <v>212.4130655706802</v>
       </c>
       <c r="N7" t="n">
-        <v>207.8830893413651</v>
+        <v>207.3623576379553</v>
       </c>
       <c r="O7" t="n">
-        <v>192.0136798597721</v>
+        <v>191.5326998488046</v>
       </c>
       <c r="P7" t="n">
-        <v>164.3008745082587</v>
+        <v>163.8893130170115</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.7534091322588</v>
+        <v>113.468465288612</v>
       </c>
       <c r="R7" t="n">
-        <v>61.08178933537638</v>
+        <v>60.92878398843498</v>
       </c>
       <c r="S7" t="n">
-        <v>23.67444200483553</v>
+        <v>23.61513928544882</v>
       </c>
       <c r="T7" t="n">
-        <v>5.804375452411423</v>
+        <v>5.789835922879992</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07409841003078424</v>
+        <v>0.07391279901548936</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441349</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.74264849688748</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>370.8020371402618</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610842</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367339</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251651</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>779.5476751295867</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553355</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063145</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696336</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619417</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798235</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237127</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701839</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>377.462960617867</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732924</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>592.281696903446</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312871</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295524</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776569</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898378</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.42196433190699</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.42371783942159</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053843</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939678</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894956</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358533</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.11626629220765</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475577</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873351</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.99235720153234</v>
+        <v>75.34849544108187</v>
       </c>
       <c r="K5" t="n">
-        <v>165.1438729899642</v>
+        <v>164.1788911149922</v>
       </c>
       <c r="L5" t="n">
-        <v>242.1500843914274</v>
+        <v>240.9529390459903</v>
       </c>
       <c r="M5" t="n">
-        <v>301.4279569632757</v>
+        <v>300.0959021012636</v>
       </c>
       <c r="N5" t="n">
-        <v>310.96578894404</v>
+        <v>309.6121800417399</v>
       </c>
       <c r="O5" t="n">
-        <v>280.1662156922371</v>
+        <v>278.8880411896247</v>
       </c>
       <c r="P5" t="n">
-        <v>204.2658874017136</v>
+        <v>203.1749950353461</v>
       </c>
       <c r="Q5" t="n">
-        <v>104.7358345804399</v>
+        <v>103.9166198446252</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>26.25260113028367</v>
+        <v>25.86912147665399</v>
       </c>
       <c r="K6" t="n">
-        <v>388.2793811959338</v>
+        <v>123.1587163755615</v>
       </c>
       <c r="L6" t="n">
-        <v>213.2738420802079</v>
+        <v>212.3925385078139</v>
       </c>
       <c r="M6" t="n">
-        <v>268.4329063235515</v>
+        <v>267.4044666229718</v>
       </c>
       <c r="N6" t="n">
-        <v>290.0917133904775</v>
+        <v>423.3179548919687</v>
       </c>
       <c r="O6" t="n">
-        <v>242.9330061614311</v>
+        <v>241.9672840143418</v>
       </c>
       <c r="P6" t="n">
-        <v>175.4468050560112</v>
+        <v>174.6717278934036</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.13774282673322</v>
+        <v>207.1904961175175</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1957579144311836</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.684709018228602</v>
+        <v>2.444126207237233</v>
       </c>
       <c r="K7" t="n">
-        <v>135.5601215396873</v>
+        <v>135.1647700771093</v>
       </c>
       <c r="L7" t="n">
-        <v>229.5575915342235</v>
+        <v>229.0516777768681</v>
       </c>
       <c r="M7" t="n">
-        <v>252.5303576553091</v>
+        <v>251.9969425325208</v>
       </c>
       <c r="N7" t="n">
-        <v>252.0152617205937</v>
+        <v>251.4945300171839</v>
       </c>
       <c r="O7" t="n">
-        <v>216.5988077738117</v>
+        <v>216.1178277628443</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5794337731521</v>
+        <v>161.167872281905</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.59136588056442</v>
+        <v>27.30642203691758</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135755</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>335.6462821161037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667466</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978924</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>550.1346115329957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>506.0065528336487</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>397.015390151045</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951841</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>58.85023844780955</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581272</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>239.621521643508</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934182</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>450.1476629814277</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>476.6159189479538</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851079</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633267</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531248</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058223</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>318.9473683542839</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035353</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.93802322981087</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
